--- a/data/performance_data/excel_condensed/women volleyball.xlsx
+++ b/data/performance_data/excel_condensed/women volleyball.xlsx
@@ -1,42 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yil224/Group133_WI24/data/performance_data/excel_condensed/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B4F31-C8E5-C542-9C86-DF75ED00155D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{7BDBD037-5A54-B44A-9EEF-85C5FAB4CE2A}"/>
+    <workbookView windowWidth="29400" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -53,16 +31,129 @@
     <t>K/S</t>
   </si>
   <si>
+    <t>Attack E</t>
+  </si>
+  <si>
+    <t>Attack TA</t>
+  </si>
+  <si>
     <t>Pct</t>
   </si>
   <si>
+    <t>Set A</t>
+  </si>
+  <si>
+    <t>Set A/S</t>
+  </si>
+  <si>
     <t>SA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Serve
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SE</t>
+    </r>
   </si>
   <si>
     <t>SA/S</t>
   </si>
   <si>
     <t>RE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DIG</t>
+    </r>
+  </si>
+  <si>
+    <t>Dig DIG/S</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BA</t>
+    </r>
+  </si>
+  <si>
+    <t>Blocking BLK</t>
+  </si>
+  <si>
+    <t>Blocking BLK/S</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BHE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PTS</t>
+    </r>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
   <si>
     <t>Perez, Shaelyn</t>
@@ -179,7 +270,17 @@
     <t>Cannon, Grace</t>
   </si>
   <si>
+    <t>Papaz, Jovana</t>
+  </si>
+  <si>
+    <t>109
+7</t>
+  </si>
+  <si>
     <t>Mason, Dani</t>
+  </si>
+  <si>
+    <t>Gallagher, Morgan</t>
   </si>
   <si>
     <t>Strand, Izzi</t>
@@ -191,10 +292,10 @@
     <t>Repetti, Natalie</t>
   </si>
   <si>
-    <t>Henderson, Zaria</t>
+    <t>Russo, Odeya</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Henderson, Zaria</t>
   </si>
   <si>
     <t>Dryden, Reagan</t>
@@ -206,10 +307,6 @@
     <t>Da Silva, Shara</t>
   </si>
   <si>
-    <t>107.
-0</t>
-  </si>
-  <si>
     <t>Tanner, Aubrey</t>
   </si>
   <si>
@@ -219,34 +316,17 @@
     <t>Saran, Jasmine</t>
   </si>
   <si>
-    <t>Quach, Gabby</t>
+    <t>107
+4</t>
   </si>
   <si>
-    <t>Papaz, Jovana</t>
-  </si>
-  <si>
-    <t>109
-7</t>
-  </si>
-  <si>
-    <t>Gallagher, Morgan</t>
-  </si>
-  <si>
-    <t>Russo, Odeya</t>
-  </si>
-  <si>
-    <t>107
-4</t>
+    <t>Quach, Gabby</t>
   </si>
   <si>
     <t>Branavets, Dana</t>
   </si>
   <si>
     <t>Knowles, Nevada</t>
-  </si>
-  <si>
-    <t>117.
-0</t>
   </si>
   <si>
     <t>Canko, Iris</t>
@@ -257,120 +337,23 @@
   <si>
     <t>Brooker, Lauren</t>
   </si>
-  <si>
-    <t>Attack E</t>
-  </si>
-  <si>
-    <t>Attack TA</t>
-  </si>
-  <si>
-    <t>Set A/S</t>
-  </si>
-  <si>
-    <t>Set A</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DIG</t>
-    </r>
-  </si>
-  <si>
-    <t>Dig DIG/S</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BA</t>
-    </r>
-  </si>
-  <si>
-    <t>Blocking BLK</t>
-  </si>
-  <si>
-    <t>Blocking BLK/S</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BHE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>PTS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Serve
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SE</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,37 +361,374 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -416,26 +736,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -484,7 +1093,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -517,26 +1126,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -569,23 +1161,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office 2013 - 2022">
@@ -727,26 +1302,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C571E0C3-F101-1A4D-A34F-FD9EDCED440A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S90" sqref="S90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,69 +1333,69 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -843,7 +1413,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="2">
-        <v>0.28599999999999998</v>
+        <v>0.286</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -894,12 +1464,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="2">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>36</v>
@@ -917,13 +1487,13 @@
         <v>46</v>
       </c>
       <c r="H3" s="2">
-        <v>0.19600000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="I3" s="2">
         <v>359</v>
       </c>
       <c r="J3" s="2">
-        <v>9.9700000000000006</v>
+        <v>9.97</v>
       </c>
       <c r="K3" s="2">
         <v>2</v>
@@ -953,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="T3" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="U3" s="2">
         <v>3</v>
@@ -968,12 +1538,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="2">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>34</v>
@@ -1015,7 +1585,7 @@
         <v>10</v>
       </c>
       <c r="P4" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1042,12 +1612,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="2">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
         <v>105</v>
@@ -1089,7 +1659,7 @@
         <v>436</v>
       </c>
       <c r="P5" s="2">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1116,12 +1686,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="2">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <v>71</v>
@@ -1139,7 +1709,7 @@
         <v>286</v>
       </c>
       <c r="H6" s="2">
-        <v>0.23100000000000001</v>
+        <v>0.231</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
@@ -1190,12 +1760,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <v>53</v>
@@ -1213,7 +1783,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="2">
-        <v>0.28599999999999998</v>
+        <v>0.286</v>
       </c>
       <c r="I7" s="2">
         <v>208</v>
@@ -1264,12 +1834,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="2">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>73</v>
@@ -1287,7 +1857,7 @@
         <v>358</v>
       </c>
       <c r="H8" s="2">
-        <v>0.19800000000000001</v>
+        <v>0.198</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -1338,12 +1908,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="2">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>64</v>
@@ -1361,7 +1931,7 @@
         <v>58</v>
       </c>
       <c r="H9" s="2">
-        <v>-8.5999999999999993E-2</v>
+        <v>-0.086</v>
       </c>
       <c r="I9" s="2">
         <v>4</v>
@@ -1412,12 +1982,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>92</v>
@@ -1435,7 +2005,7 @@
         <v>440</v>
       </c>
       <c r="H10" s="2">
-        <v>0.13600000000000001</v>
+        <v>0.136</v>
       </c>
       <c r="I10" s="2">
         <v>24</v>
@@ -1486,12 +2056,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" s="2">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>97</v>
@@ -1524,7 +2094,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="N11" s="2">
         <v>9</v>
@@ -1560,12 +2130,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>88</v>
@@ -1583,7 +2153,7 @@
         <v>421</v>
       </c>
       <c r="H12" s="2">
-        <v>0.24199999999999999</v>
+        <v>0.242</v>
       </c>
       <c r="I12" s="2">
         <v>4</v>
@@ -1634,12 +2204,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" s="2">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>77</v>
@@ -1708,12 +2278,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" s="2">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
@@ -1722,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="F14" s="2">
         <v>3</v>
@@ -1731,13 +2301,13 @@
         <v>12</v>
       </c>
       <c r="H14" s="2">
-        <v>-8.3000000000000004E-2</v>
+        <v>-0.083</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -1782,12 +2352,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" s="2">
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2">
         <v>81</v>
@@ -1856,12 +2426,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="2">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>93</v>
@@ -1879,7 +2449,7 @@
         <v>823</v>
       </c>
       <c r="H16" s="2">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="I16" s="2">
         <v>4</v>
@@ -1930,12 +2500,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" s="2">
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>102</v>
@@ -2004,12 +2574,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" s="2">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>59</v>
@@ -2027,7 +2597,7 @@
         <v>67</v>
       </c>
       <c r="H18" s="2">
-        <v>0.16400000000000001</v>
+        <v>0.164</v>
       </c>
       <c r="I18" s="2">
         <v>510</v>
@@ -2078,12 +2648,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" s="2">
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
         <v>14</v>
@@ -2092,7 +2662,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="F19" s="2">
         <v>8</v>
@@ -2107,7 +2677,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -2137,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="U19" s="2">
         <v>1</v>
@@ -2152,12 +2722,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20" s="2">
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
         <v>75</v>
@@ -2226,12 +2796,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21" s="2">
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
         <v>86</v>
@@ -2273,7 +2843,7 @@
         <v>49</v>
       </c>
       <c r="P21" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="Q21" s="2">
         <v>20</v>
@@ -2285,7 +2855,7 @@
         <v>98</v>
       </c>
       <c r="T21" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="U21" s="2">
         <v>10</v>
@@ -2300,12 +2870,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22" s="2">
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>37</v>
@@ -2323,7 +2893,7 @@
         <v>43</v>
       </c>
       <c r="H22" s="2">
-        <v>0.11600000000000001</v>
+        <v>0.116</v>
       </c>
       <c r="I22" s="2">
         <v>166</v>
@@ -2374,12 +2944,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23" s="2">
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2">
         <v>89</v>
@@ -2388,7 +2958,7 @@
         <v>218</v>
       </c>
       <c r="E23" s="2">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="F23" s="2">
         <v>53</v>
@@ -2397,13 +2967,13 @@
         <v>506</v>
       </c>
       <c r="H23" s="2">
-        <v>0.32600000000000001</v>
+        <v>0.326</v>
       </c>
       <c r="I23" s="2">
         <v>6</v>
       </c>
       <c r="J23" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -2448,12 +3018,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24" s="2">
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2">
         <v>88</v>
@@ -2471,7 +3041,7 @@
         <v>621</v>
       </c>
       <c r="H24" s="2">
-        <v>8.1000000000000003E-2</v>
+        <v>0.081</v>
       </c>
       <c r="I24" s="2">
         <v>18</v>
@@ -2522,12 +3092,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25" s="2">
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2">
         <v>92</v>
@@ -2545,7 +3115,7 @@
         <v>946</v>
       </c>
       <c r="H25" s="2">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="I25" s="2">
         <v>23</v>
@@ -2560,7 +3130,7 @@
         <v>28</v>
       </c>
       <c r="M25" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="N25" s="2">
         <v>24</v>
@@ -2596,12 +3166,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26" s="2">
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
         <v>86</v>
@@ -2610,7 +3180,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -2619,7 +3189,7 @@
         <v>13</v>
       </c>
       <c r="H26" s="2">
-        <v>0.46200000000000002</v>
+        <v>0.462</v>
       </c>
       <c r="I26" s="2">
         <v>101</v>
@@ -2670,12 +3240,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27" s="2">
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2">
         <v>50</v>
@@ -2684,7 +3254,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="F27" s="2">
         <v>18</v>
@@ -2693,7 +3263,7 @@
         <v>182</v>
       </c>
       <c r="H27" s="2">
-        <v>0.20899999999999999</v>
+        <v>0.209</v>
       </c>
       <c r="I27" s="2">
         <v>4</v>
@@ -2744,12 +3314,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28" s="2">
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2">
         <v>30</v>
@@ -2767,7 +3337,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="2">
-        <v>0.21099999999999999</v>
+        <v>0.211</v>
       </c>
       <c r="I28" s="2">
         <v>190</v>
@@ -2818,12 +3388,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29" s="2">
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
         <v>89</v>
@@ -2865,7 +3435,7 @@
         <v>388</v>
       </c>
       <c r="P29" s="2">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -2892,12 +3462,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30" s="2">
         <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
@@ -2915,7 +3485,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="2">
-        <v>-0.33300000000000002</v>
+        <v>-0.333</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -2966,12 +3536,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31" s="2">
         <v>17</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2">
         <v>40</v>
@@ -3040,12 +3610,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="A32" s="2">
         <v>18</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
         <v>21</v>
@@ -3063,7 +3633,7 @@
         <v>37</v>
       </c>
       <c r="H32" s="2">
-        <v>-5.3999999999999999E-2</v>
+        <v>-0.054</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
@@ -3087,7 +3657,7 @@
         <v>3</v>
       </c>
       <c r="P32" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Q32" s="2">
         <v>2</v>
@@ -3114,12 +3684,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24">
       <c r="A33" s="2">
         <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2">
         <v>64</v>
@@ -3137,7 +3707,7 @@
         <v>392</v>
       </c>
       <c r="H33" s="2">
-        <v>0.17899999999999999</v>
+        <v>0.179</v>
       </c>
       <c r="I33" s="2">
         <v>4</v>
@@ -3188,12 +3758,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24">
       <c r="A34" s="2">
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2">
         <v>71</v>
@@ -3262,12 +3832,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24">
       <c r="A35" s="2">
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2">
         <v>67</v>
@@ -3285,7 +3855,7 @@
         <v>98</v>
       </c>
       <c r="H35" s="2">
-        <v>0.39800000000000002</v>
+        <v>0.398</v>
       </c>
       <c r="I35" s="2">
         <v>412</v>
@@ -3336,12 +3906,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24">
       <c r="A36" s="2">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -3359,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="2">
-        <v>-0.66700000000000004</v>
+        <v>-0.667</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -3410,12 +3980,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24">
       <c r="A37" s="2">
         <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2">
         <v>19</v>
@@ -3433,7 +4003,7 @@
         <v>67</v>
       </c>
       <c r="H37" s="2">
-        <v>0.14899999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -3469,7 +4039,7 @@
         <v>11</v>
       </c>
       <c r="T37" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
@@ -3484,12 +4054,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24">
       <c r="A38" s="2">
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2">
         <v>86</v>
@@ -3522,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -3531,7 +4101,7 @@
         <v>47</v>
       </c>
       <c r="P38" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="Q38" s="2">
         <v>17</v>
@@ -3558,12 +4128,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24">
       <c r="A39" s="2">
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2">
         <v>21</v>
@@ -3581,7 +4151,7 @@
         <v>53</v>
       </c>
       <c r="H39" s="2">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
@@ -3605,7 +4175,7 @@
         <v>6</v>
       </c>
       <c r="P39" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Q39" s="2">
         <v>0</v>
@@ -3632,12 +4202,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24">
       <c r="A40" s="2">
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2">
         <v>58</v>
@@ -3655,7 +4225,7 @@
         <v>219</v>
       </c>
       <c r="H40" s="2">
-        <v>0.23699999999999999</v>
+        <v>0.237</v>
       </c>
       <c r="I40" s="2">
         <v>3</v>
@@ -3706,12 +4276,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24">
       <c r="A41" s="2">
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2">
         <v>64</v>
@@ -3729,7 +4299,7 @@
         <v>256</v>
       </c>
       <c r="H41" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="I41" s="2">
         <v>13</v>
@@ -3780,12 +4350,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24">
       <c r="A42" s="2">
         <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2">
         <v>47</v>
@@ -3854,12 +4424,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24">
       <c r="A43" s="2">
         <v>12</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2">
         <v>86</v>
@@ -3877,7 +4447,7 @@
         <v>770</v>
       </c>
       <c r="H43" s="2">
-        <v>0.16900000000000001</v>
+        <v>0.169</v>
       </c>
       <c r="I43" s="2">
         <v>26</v>
@@ -3928,12 +4498,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24">
       <c r="A44" s="2">
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2">
         <v>2</v>
@@ -4002,12 +4572,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24">
       <c r="A45" s="2">
         <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2">
         <v>48</v>
@@ -4076,12 +4646,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24">
       <c r="A46" s="2">
         <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2">
         <v>43</v>
@@ -4099,7 +4669,7 @@
         <v>131</v>
       </c>
       <c r="H46" s="2">
-        <v>0.13700000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
@@ -4150,12 +4720,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24">
       <c r="A47" s="2">
         <v>17</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C47" s="2">
         <v>15</v>
@@ -4173,13 +4743,13 @@
         <v>45</v>
       </c>
       <c r="H47" s="2">
-        <v>0.13300000000000001</v>
+        <v>0.133</v>
       </c>
       <c r="I47" s="2">
         <v>1</v>
       </c>
       <c r="J47" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -4224,12 +4794,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24">
       <c r="A48" s="2">
         <v>18</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2">
         <v>10</v>
@@ -4247,7 +4817,7 @@
         <v>22</v>
       </c>
       <c r="H48" s="2">
-        <v>0.27300000000000002</v>
+        <v>0.273</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -4298,12 +4868,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24">
       <c r="A49" s="2">
         <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2">
         <v>66</v>
@@ -4357,7 +4927,7 @@
         <v>19</v>
       </c>
       <c r="T49" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="U49" s="2">
         <v>2</v>
@@ -4372,12 +4942,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24">
       <c r="A50" s="2">
         <v>21</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2">
         <v>60</v>
@@ -4446,12 +5016,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24">
       <c r="A51" s="2">
         <v>25</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2">
         <v>83</v>
@@ -4469,7 +5039,7 @@
         <v>575</v>
       </c>
       <c r="H51" s="2">
-        <v>0.20699999999999999</v>
+        <v>0.207</v>
       </c>
       <c r="I51" s="2">
         <v>41</v>
@@ -4520,12 +5090,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24">
       <c r="A52" s="2">
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2">
         <v>97</v>
@@ -4543,7 +5113,7 @@
         <v>16</v>
       </c>
       <c r="H52" s="2">
-        <v>6.3E-2</v>
+        <v>0.063</v>
       </c>
       <c r="I52" s="2">
         <v>264</v>
@@ -4567,7 +5137,7 @@
         <v>195</v>
       </c>
       <c r="P52" s="2">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="Q52" s="2">
         <v>0</v>
@@ -4594,12 +5164,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24">
       <c r="A53" s="2">
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2">
         <v>30</v>
@@ -4617,7 +5187,7 @@
         <v>21</v>
       </c>
       <c r="H53" s="2">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="I53" s="2">
         <v>129</v>
@@ -4668,12 +5238,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24">
       <c r="A54" s="2">
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2">
         <v>6</v>
@@ -4742,12 +5312,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24">
       <c r="A55" s="2">
         <v>5</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2">
         <v>14</v>
@@ -4756,7 +5326,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="F55" s="2">
         <v>4</v>
@@ -4765,13 +5335,13 @@
         <v>19</v>
       </c>
       <c r="H55" s="2">
-        <v>0.21099999999999999</v>
+        <v>0.211</v>
       </c>
       <c r="I55" s="2">
         <v>1</v>
       </c>
       <c r="J55" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
@@ -4801,7 +5371,7 @@
         <v>4</v>
       </c>
       <c r="T55" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="U55" s="2">
         <v>1</v>
@@ -4816,12 +5386,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24">
       <c r="A56" s="2">
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C56" s="2">
         <v>98</v>
@@ -4839,13 +5409,13 @@
         <v>489</v>
       </c>
       <c r="H56" s="2">
-        <v>0.39900000000000002</v>
+        <v>0.399</v>
       </c>
       <c r="I56" s="2">
         <v>14</v>
       </c>
       <c r="J56" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="K56" s="2">
         <v>17</v>
@@ -4875,7 +5445,7 @@
         <v>108</v>
       </c>
       <c r="T56" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="U56" s="2">
         <v>4</v>
@@ -4890,12 +5460,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24">
       <c r="A57" s="2">
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C57" s="2">
         <v>59</v>
@@ -4937,7 +5507,7 @@
         <v>17</v>
       </c>
       <c r="P57" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Q57" s="2">
         <v>3</v>
@@ -4964,12 +5534,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24">
       <c r="A58" s="2">
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C58" s="2">
         <v>94</v>
@@ -5038,12 +5608,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24">
       <c r="A59" s="2">
         <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C59" s="2">
         <v>93</v>
@@ -5061,7 +5631,7 @@
         <v>612</v>
       </c>
       <c r="H59" s="2">
-        <v>0.19800000000000001</v>
+        <v>0.198</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
@@ -5112,12 +5682,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24">
       <c r="A60" s="2">
         <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C60" s="2">
         <v>66</v>
@@ -5186,12 +5756,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24">
       <c r="A61" s="2">
         <v>12</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C61" s="2">
         <v>97</v>
@@ -5200,7 +5770,7 @@
         <v>219</v>
       </c>
       <c r="E61" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="F61" s="2">
         <v>94</v>
@@ -5209,7 +5779,7 @@
         <v>640</v>
       </c>
       <c r="H61" s="2">
-        <v>0.19500000000000001</v>
+        <v>0.195</v>
       </c>
       <c r="I61" s="2">
         <v>18</v>
@@ -5224,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="M61" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="N61" s="2">
         <v>40</v>
@@ -5260,12 +5830,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24">
       <c r="A62" s="2">
         <v>15</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C62" s="2">
         <v>85</v>
@@ -5334,12 +5904,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24">
       <c r="A63" s="2">
         <v>19</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C63" s="2">
         <v>59</v>
@@ -5357,7 +5927,7 @@
         <v>191</v>
       </c>
       <c r="H63" s="2">
-        <v>0.19400000000000001</v>
+        <v>0.194</v>
       </c>
       <c r="I63" s="2">
         <v>2</v>
@@ -5408,12 +5978,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24">
       <c r="A64" s="2">
         <v>21</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2">
         <v>92</v>
@@ -5422,7 +5992,7 @@
         <v>201</v>
       </c>
       <c r="E64" s="2">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="F64" s="2">
         <v>86</v>
@@ -5431,7 +6001,7 @@
         <v>564</v>
       </c>
       <c r="H64" s="2">
-        <v>0.20399999999999999</v>
+        <v>0.204</v>
       </c>
       <c r="I64" s="2">
         <v>15</v>
@@ -5482,12 +6052,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24">
       <c r="A65" s="2">
         <v>22</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C65" s="2">
         <v>8</v>
@@ -5505,7 +6075,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="2">
-        <v>-5.2999999999999999E-2</v>
+        <v>-0.053</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
@@ -5556,12 +6126,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24">
       <c r="A66" s="2">
         <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C66" s="2">
         <v>117</v>
@@ -5603,7 +6173,7 @@
         <v>296</v>
       </c>
       <c r="P66" s="2">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="Q66" s="2">
         <v>0</v>
@@ -5630,12 +6200,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24">
       <c r="A67" s="2">
         <v>2</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2">
         <v>113</v>
@@ -5677,7 +6247,7 @@
         <v>493</v>
       </c>
       <c r="P67" s="2">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="Q67" s="2">
         <v>0</v>
@@ -5704,12 +6274,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24">
       <c r="A68" s="2">
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2">
         <v>87</v>
@@ -5778,12 +6348,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24">
       <c r="A69" s="2">
         <v>4</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2">
         <v>112</v>
@@ -5801,13 +6371,13 @@
         <v>1110</v>
       </c>
       <c r="H69" s="2">
-        <v>0.17699999999999999</v>
+        <v>0.177</v>
       </c>
       <c r="I69" s="2">
         <v>8</v>
       </c>
       <c r="J69" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="K69" s="2">
         <v>23</v>
@@ -5852,12 +6422,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" ht="16" customHeight="1" spans="1:24">
       <c r="A70" s="2">
         <v>5</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2">
         <v>77</v>
@@ -5875,7 +6445,7 @@
         <v>714</v>
       </c>
       <c r="H70" s="2">
-        <v>0.14799999999999999</v>
+        <v>0.148</v>
       </c>
       <c r="I70" s="2">
         <v>12</v>
@@ -5926,12 +6496,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24">
       <c r="A71" s="2">
         <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2">
         <v>68</v>
@@ -5949,7 +6519,7 @@
         <v>270</v>
       </c>
       <c r="H71" s="2">
-        <v>0.24099999999999999</v>
+        <v>0.241</v>
       </c>
       <c r="I71" s="2">
         <v>2</v>
@@ -5985,7 +6555,7 @@
         <v>39</v>
       </c>
       <c r="T71" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="U71" s="2">
         <v>3</v>
@@ -6000,12 +6570,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24">
       <c r="A72" s="2">
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2">
         <v>21</v>
@@ -6023,7 +6593,7 @@
         <v>37</v>
       </c>
       <c r="H72" s="2">
-        <v>-0.13500000000000001</v>
+        <v>-0.135</v>
       </c>
       <c r="I72" s="2">
         <v>2</v>
@@ -6074,12 +6644,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24">
       <c r="A73" s="2">
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2">
         <v>15</v>
@@ -6097,7 +6667,7 @@
         <v>33</v>
       </c>
       <c r="H73" s="2">
-        <v>-6.0999999999999999E-2</v>
+        <v>-0.061</v>
       </c>
       <c r="I73" s="2">
         <v>2</v>
@@ -6133,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="T73" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="U73" s="2">
         <v>0</v>
@@ -6148,12 +6718,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" ht="16" customHeight="1" spans="1:24">
       <c r="A74" s="2">
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2">
         <v>103</v>
@@ -6222,12 +6792,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24">
       <c r="A75" s="2">
         <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2">
         <v>107</v>
@@ -6248,7 +6818,7 @@
         <v>0.157</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J75" s="2">
         <v>10.25</v>
@@ -6296,12 +6866,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24">
       <c r="A76" s="2">
         <v>11</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2">
         <v>38</v>
@@ -6310,7 +6880,7 @@
         <v>21</v>
       </c>
       <c r="E76" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F76" s="2">
         <v>9</v>
@@ -6370,12 +6940,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" ht="16" customHeight="1" spans="1:24">
       <c r="A77" s="2">
         <v>14</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2">
         <v>6</v>
@@ -6444,12 +7014,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24">
       <c r="A78" s="2">
         <v>16</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2">
         <v>24</v>
@@ -6518,12 +7088,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24">
       <c r="A79" s="2">
         <v>17</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2">
         <v>78</v>
@@ -6541,7 +7111,7 @@
         <v>466</v>
       </c>
       <c r="H79" s="2">
-        <v>0.28499999999999998</v>
+        <v>0.285</v>
       </c>
       <c r="I79" s="2">
         <v>8</v>
@@ -6592,12 +7162,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24">
       <c r="A80" s="2">
         <v>23</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2">
         <v>84</v>
@@ -6666,12 +7236,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24">
       <c r="A81" s="2">
         <v>24</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2">
         <v>36</v>
@@ -6695,7 +7265,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="K81" s="2">
         <v>0</v>
@@ -6740,12 +7310,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24">
       <c r="A82" s="2">
         <v>25</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2">
         <v>10</v>
@@ -6763,7 +7333,7 @@
         <v>53</v>
       </c>
       <c r="H82" s="2">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="I82" s="2">
         <v>2</v>
@@ -6814,12 +7384,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24">
       <c r="A83" s="2">
         <v>33</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2">
         <v>67</v>
@@ -6828,7 +7398,7 @@
         <v>163</v>
       </c>
       <c r="E83" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="F83" s="2">
         <v>86</v>
@@ -6888,12 +7458,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24">
       <c r="A84" s="2">
         <v>2</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2">
         <v>117</v>
@@ -6962,12 +7532,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24">
       <c r="A85" s="2">
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2">
         <v>40</v>
@@ -7036,12 +7606,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24">
       <c r="A86" s="2">
         <v>4</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2">
         <v>123</v>
@@ -7059,7 +7629,7 @@
         <v>1374</v>
       </c>
       <c r="H86" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.213</v>
       </c>
       <c r="I86" s="2">
         <v>20</v>
@@ -7110,12 +7680,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" ht="16" customHeight="1" spans="1:24">
       <c r="A87" s="2">
         <v>5</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2">
         <v>52</v>
@@ -7133,7 +7703,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="I87" s="2">
         <v>6</v>
@@ -7184,12 +7754,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24">
       <c r="A88" s="2">
         <v>6</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2">
         <v>34</v>
@@ -7258,12 +7828,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24">
       <c r="A89" s="2">
         <v>7</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2">
         <v>5</v>
@@ -7332,12 +7902,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24">
       <c r="A90" s="2">
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2">
         <v>67</v>
@@ -7355,7 +7925,7 @@
         <v>279</v>
       </c>
       <c r="H90" s="2">
-        <v>0.14699999999999999</v>
+        <v>0.147</v>
       </c>
       <c r="I90" s="2">
         <v>2</v>
@@ -7379,7 +7949,7 @@
         <v>74</v>
       </c>
       <c r="P90" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Q90" s="2">
         <v>8</v>
@@ -7406,12 +7976,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24">
       <c r="A91" s="2">
         <v>9</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2">
         <v>104</v>
@@ -7429,7 +7999,7 @@
         <v>339</v>
       </c>
       <c r="H91" s="2">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="I91" s="2">
         <v>13</v>
@@ -7461,8 +8031,8 @@
       <c r="R91" s="2">
         <v>87</v>
       </c>
-      <c r="S91" s="2" t="s">
-        <v>56</v>
+      <c r="S91" s="2">
+        <v>107</v>
       </c>
       <c r="T91" s="2">
         <v>1.03</v>
@@ -7480,12 +8050,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24">
       <c r="A92" s="2">
         <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2">
         <v>43</v>
@@ -7503,7 +8073,7 @@
         <v>116</v>
       </c>
       <c r="H92" s="2">
-        <v>0.14699999999999999</v>
+        <v>0.147</v>
       </c>
       <c r="I92" s="2">
         <v>133</v>
@@ -7518,7 +8088,7 @@
         <v>7</v>
       </c>
       <c r="M92" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="N92" s="2">
         <v>3</v>
@@ -7554,12 +8124,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24">
       <c r="A93" s="2">
         <v>11</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2">
         <v>25</v>
@@ -7577,7 +8147,7 @@
         <v>52</v>
       </c>
       <c r="H93" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.269</v>
       </c>
       <c r="I93" s="2">
         <v>1</v>
@@ -7628,12 +8198,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24">
       <c r="A94" s="2">
         <v>12</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2">
         <v>57</v>
@@ -7702,12 +8272,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24">
       <c r="A95" s="2">
         <v>15</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2">
         <v>33</v>
@@ -7776,12 +8346,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24">
       <c r="A96" s="2">
         <v>16</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C96" s="2">
         <v>114</v>
@@ -7799,10 +8369,10 @@
         <v>260</v>
       </c>
       <c r="H96" s="2">
-        <v>0.32700000000000001</v>
+        <v>0.327</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="J96" s="2">
         <v>9.42</v>
@@ -7823,7 +8393,7 @@
         <v>265</v>
       </c>
       <c r="P96" s="2">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="Q96" s="2">
         <v>7</v>
@@ -7850,12 +8420,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24">
       <c r="A97" s="2">
         <v>17</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C97" s="2">
         <v>112</v>
@@ -7873,7 +8443,7 @@
         <v>574</v>
       </c>
       <c r="H97" s="2">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="I97" s="2">
         <v>5</v>
@@ -7924,12 +8494,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24">
       <c r="A98" s="2">
         <v>20</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2">
         <v>1</v>
@@ -7998,12 +8568,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24">
       <c r="A99" s="2">
         <v>23</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2">
         <v>114</v>
@@ -8072,12 +8642,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24">
       <c r="A100" s="2">
         <v>33</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C100" s="2">
         <v>121</v>
@@ -8119,7 +8689,7 @@
         <v>276</v>
       </c>
       <c r="P100" s="2">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="Q100" s="2">
         <v>5</v>
@@ -8146,12 +8716,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24">
       <c r="A101" s="2">
         <v>1</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2">
         <v>50</v>
@@ -8184,7 +8754,7 @@
         <v>5</v>
       </c>
       <c r="M101" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="N101" s="2">
         <v>13</v>
@@ -8220,12 +8790,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24">
       <c r="A102" s="2">
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C102" s="2">
         <v>20</v>
@@ -8243,7 +8813,7 @@
         <v>46</v>
       </c>
       <c r="H102" s="2">
-        <v>0.17399999999999999</v>
+        <v>0.174</v>
       </c>
       <c r="I102" s="2">
         <v>2</v>
@@ -8294,12 +8864,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24">
       <c r="A103" s="2">
         <v>4</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C103" s="2">
         <v>101</v>
@@ -8368,12 +8938,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" ht="16" customHeight="1" spans="1:24">
       <c r="A104" s="2">
         <v>5</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C104" s="2">
         <v>42</v>
@@ -8382,7 +8952,7 @@
         <v>94</v>
       </c>
       <c r="E104" s="2">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="F104" s="2">
         <v>36</v>
@@ -8391,7 +8961,7 @@
         <v>296</v>
       </c>
       <c r="H104" s="2">
-        <v>0.19600000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="I104" s="2">
         <v>9</v>
@@ -8442,12 +9012,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24">
       <c r="A105" s="2">
         <v>7</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2">
         <v>15</v>
@@ -8456,7 +9026,7 @@
         <v>17</v>
       </c>
       <c r="E105" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="F105" s="2">
         <v>7</v>
@@ -8501,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="T105" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="U105" s="2">
         <v>0</v>
@@ -8516,12 +9086,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24">
       <c r="A106" s="2">
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C106" s="2">
         <v>60</v>
@@ -8545,7 +9115,7 @@
         <v>4</v>
       </c>
       <c r="J106" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="K106" s="2">
         <v>1</v>
@@ -8590,12 +9160,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24">
       <c r="A107" s="2">
         <v>9</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2">
         <v>28</v>
@@ -8613,13 +9183,13 @@
         <v>58</v>
       </c>
       <c r="H107" s="2">
-        <v>0.32800000000000001</v>
+        <v>0.328</v>
       </c>
       <c r="I107" s="2">
         <v>2</v>
       </c>
       <c r="J107" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="K107" s="2">
         <v>0</v>
@@ -8664,12 +9234,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24">
       <c r="A108" s="2">
         <v>10</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C108" s="2">
         <v>40</v>
@@ -8687,7 +9257,7 @@
         <v>110</v>
       </c>
       <c r="H108" s="2">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="I108" s="2">
         <v>1</v>
@@ -8738,12 +9308,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24">
       <c r="A109" s="2">
         <v>12</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C109" s="2">
         <v>46</v>
@@ -8761,7 +9331,7 @@
         <v>3</v>
       </c>
       <c r="H109" s="2">
-        <v>-0.33300000000000002</v>
+        <v>-0.333</v>
       </c>
       <c r="I109" s="2">
         <v>14</v>
@@ -8812,12 +9382,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24">
       <c r="A110" s="2">
         <v>14</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C110" s="2">
         <v>98</v>
@@ -8826,7 +9396,7 @@
         <v>27</v>
       </c>
       <c r="E110" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="F110" s="2">
         <v>9</v>
@@ -8835,7 +9405,7 @@
         <v>88</v>
       </c>
       <c r="H110" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.205</v>
       </c>
       <c r="I110" s="2">
         <v>632</v>
@@ -8886,12 +9456,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24">
       <c r="A111" s="2">
         <v>15</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C111" s="2">
         <v>110</v>
@@ -8909,7 +9479,7 @@
         <v>445</v>
       </c>
       <c r="H111" s="2">
-        <v>0.30599999999999999</v>
+        <v>0.306</v>
       </c>
       <c r="I111" s="2">
         <v>17</v>
@@ -8941,8 +9511,8 @@
       <c r="R111" s="2">
         <v>92</v>
       </c>
-      <c r="S111" s="2" t="s">
-        <v>68</v>
+      <c r="S111" s="3">
+        <v>117</v>
       </c>
       <c r="T111" s="2">
         <v>1.06</v>
@@ -8960,12 +9530,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24">
       <c r="A112" s="2">
         <v>17</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2">
         <v>71</v>
@@ -8983,7 +9553,7 @@
         <v>347</v>
       </c>
       <c r="H112" s="2">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="I112" s="2">
         <v>8</v>
@@ -9034,12 +9604,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24">
       <c r="A113" s="2">
         <v>20</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C113" s="2">
         <v>7</v>
@@ -9063,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="K113" s="2">
         <v>0</v>
@@ -9108,12 +9678,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" ht="16" customHeight="1" spans="1:24">
       <c r="A114" s="2">
         <v>21</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2">
         <v>35</v>
@@ -9131,7 +9701,7 @@
         <v>187</v>
       </c>
       <c r="H114" s="2">
-        <v>0.13400000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="I114" s="2">
         <v>2</v>
@@ -9167,7 +9737,7 @@
         <v>5</v>
       </c>
       <c r="T114" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="U114" s="2">
         <v>0</v>
@@ -9182,12 +9752,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24">
       <c r="A115" s="2">
         <v>23</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C115" s="2">
         <v>105</v>
@@ -9256,12 +9826,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24">
       <c r="A116" s="2">
         <v>24</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C116" s="2">
         <v>105</v>
@@ -9279,7 +9849,7 @@
         <v>562</v>
       </c>
       <c r="H116" s="2">
-        <v>0.17100000000000001</v>
+        <v>0.171</v>
       </c>
       <c r="I116" s="2">
         <v>378</v>
@@ -9315,7 +9885,7 @@
         <v>59</v>
       </c>
       <c r="T116" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="U116" s="2">
         <v>4</v>
@@ -9330,12 +9900,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24">
       <c r="A117" s="2">
         <v>33</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C117" s="2">
         <v>54</v>
@@ -9353,7 +9923,7 @@
         <v>324</v>
       </c>
       <c r="H117" s="2">
-        <v>0.13900000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="I117" s="2">
         <v>12</v>
@@ -9368,7 +9938,7 @@
         <v>6</v>
       </c>
       <c r="M117" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="N117" s="2">
         <v>25</v>
@@ -9406,5 +9976,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>